--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/20/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.1424</v>
+        <v>-14.0048</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.59790000000001</v>
+        <v>-11.65900000000001</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.14910000000001</v>
+        <v>-12.06460000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.98770000000001</v>
+        <v>-11.61859999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -706,7 +706,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.67420000000001</v>
+        <v>-11.6518</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.6025</v>
+        <v>-14.5997</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.94990000000001</v>
+        <v>-13.22900000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
